--- a/Informe.xlsx
+++ b/Informe.xlsx
@@ -11,12 +11,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>Author</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Nombre Fondo</t>
+  </si>
+  <si>
+    <t>Ap Paterno</t>
+  </si>
+  <si>
+    <t>Ap Materno.</t>
+  </si>
+  <si>
+    <t>Nombre Func.</t>
+  </si>
+  <si>
+    <t>Ficha.</t>
+  </si>
+  <si>
+    <t>Rut Func.</t>
+  </si>
+  <si>
+    <t>Liquido.</t>
+  </si>
+  <si>
+    <t>Forma Pago.</t>
+  </si>
+  <si>
+    <t>John Doe</t>
   </si>
 </sst>
 </file>
@@ -52,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,15 +415,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:H2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="8" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>25600.125</v>
       </c>
     </row>
   </sheetData>
